--- a/public/dist/contoh/contoh.xlsx
+++ b/public/dist/contoh/contoh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\laragon\www\24lara10-inventory\public\dist\contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,28 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>unilever</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>this is description about product</t>
   </si>
@@ -83,6 +62,30 @@
   </si>
   <si>
     <t>rex-1250</t>
+  </si>
+  <si>
+    <t>nama_barang</t>
+  </si>
+  <si>
+    <t>kode</t>
+  </si>
+  <si>
+    <t>satuan</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>stok</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>min_stok</t>
+  </si>
+  <si>
+    <t>pcs</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,37 +456,41 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>12000</v>
@@ -491,19 +498,22 @@
       <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>12000</v>
@@ -511,19 +521,22 @@
       <c r="E3">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>12000</v>
@@ -531,19 +544,22 @@
       <c r="E4">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>12000</v>
@@ -551,19 +567,22 @@
       <c r="E5">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>12000</v>
@@ -571,19 +590,22 @@
       <c r="E6">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>12000</v>
@@ -591,19 +613,22 @@
       <c r="E7">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>12000</v>
@@ -611,8 +636,11 @@
       <c r="E8">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
